--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9E0EE-B5F6-4DEB-B310-AB32ACBBCBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884A5AF-59BA-4324-8229-AEC99B82C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Email</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>AydenLiam1213</t>
+  </si>
+  <si>
+    <t>abctestemail4!!!!@gmail.com</t>
+  </si>
+  <si>
+    <t>abctestemail1$@gmail.com</t>
+  </si>
+  <si>
+    <t>abctestemail3$@gmail.com</t>
+  </si>
+  <si>
+    <t>james.corley@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,49 +533,48 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="QqwertyQ@123!" xr:uid="{429AEC22-2A7D-41D1-BEEC-366D56F58E46}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E1D422F6-BB11-4669-98CC-C9FE14F78322}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{7153B564-111F-433C-83F0-D036529A0348}"/>
-    <hyperlink ref="A2:A5" r:id="rId4" display="abctestemail237!!@gmail.com" xr:uid="{0FFD8762-3E94-40D5-A492-71CC8771AF28}"/>
-    <hyperlink ref="A2" r:id="rId5" xr:uid="{04803DC0-ED29-4AB8-A6E0-D889F7E5DD99}"/>
-    <hyperlink ref="A3" r:id="rId6" xr:uid="{DDD1A662-298D-4DFD-AB8B-D5FBF8AFCADB}"/>
-    <hyperlink ref="A4" r:id="rId7" xr:uid="{16B6CB8B-815F-4F1E-A5E8-70C68FEF68F2}"/>
-    <hyperlink ref="A5" r:id="rId8" xr:uid="{CFD60770-CC08-4A55-B6DA-05857299C7F6}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{7153B564-111F-433C-83F0-D036529A0348}"/>
+    <hyperlink ref="A2:A5" r:id="rId3" display="abctestemail237!!@gmail.com" xr:uid="{0FFD8762-3E94-40D5-A492-71CC8771AF28}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{04803DC0-ED29-4AB8-A6E0-D889F7E5DD99}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{DDD1A662-298D-4DFD-AB8B-D5FBF8AFCADB}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{16B6CB8B-815F-4F1E-A5E8-70C68FEF68F2}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{CFD60770-CC08-4A55-B6DA-05857299C7F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884A5AF-59BA-4324-8229-AEC99B82C8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C1D8CE-4286-4347-8E17-E3B90DFB0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Email</t>
   </si>
@@ -59,13 +59,7 @@
     <t>AydenLiam1213</t>
   </si>
   <si>
-    <t>abctestemail4!!!!@gmail.com</t>
-  </si>
-  <si>
     <t>abctestemail1$@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail3$@gmail.com</t>
   </si>
   <si>
     <t>james.corley@gmail.com</t>
@@ -506,7 +500,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +527,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -541,40 +535,29 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="QqwertyQ@123!" xr:uid="{429AEC22-2A7D-41D1-BEEC-366D56F58E46}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{7153B564-111F-433C-83F0-D036529A0348}"/>
-    <hyperlink ref="A2:A5" r:id="rId3" display="abctestemail237!!@gmail.com" xr:uid="{0FFD8762-3E94-40D5-A492-71CC8771AF28}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{04803DC0-ED29-4AB8-A6E0-D889F7E5DD99}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{DDD1A662-298D-4DFD-AB8B-D5FBF8AFCADB}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{16B6CB8B-815F-4F1E-A5E8-70C68FEF68F2}"/>
-    <hyperlink ref="A5" r:id="rId7" xr:uid="{CFD60770-CC08-4A55-B6DA-05857299C7F6}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{04803DC0-ED29-4AB8-A6E0-D889F7E5DD99}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{DDD1A662-298D-4DFD-AB8B-D5FBF8AFCADB}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{16B6CB8B-815F-4F1E-A5E8-70C68FEF68F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C1D8CE-4286-4347-8E17-E3B90DFB0D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E914CBC-1B2B-4C69-953A-D16770ACBA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2472" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Email</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>james.corley@gmail.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -500,21 +506,21 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E914CBC-1B2B-4C69-953A-D16770ACBA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323B39B-E3FB-486B-BFD2-8D3991D134BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2472" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323B39B-E3FB-486B-BFD2-8D3991D134BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB2A3A-BE0A-4D29-881A-4A22FA0A6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -62,13 +62,22 @@
     <t>abctestemail1$@gmail.com</t>
   </si>
   <si>
-    <t>james.corley@gmail.com</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>james.corley$@gmail.com</t>
+  </si>
+  <si>
+    <t>AydenLiam1213@</t>
+  </si>
+  <si>
+    <t>abc4@gmail.com</t>
+  </si>
+  <si>
+    <t>abc2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,19 +550,27 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -561,9 +578,14 @@
     <hyperlink ref="A2" r:id="rId2" xr:uid="{04803DC0-ED29-4AB8-A6E0-D889F7E5DD99}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{DDD1A662-298D-4DFD-AB8B-D5FBF8AFCADB}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{16B6CB8B-815F-4F1E-A5E8-70C68FEF68F2}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{8FE69138-625D-4199-9A62-5C400CA35732}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{7508EEEC-6638-48B7-B76A-7DC7D4314B0D}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{37F17252-466D-4C34-A88C-48FBA7C0D1DE}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{DBE9522F-4920-41A7-8775-D7FD6139DC0A}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{80579AE4-87E0-40D8-AC42-354CD6EF5E5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB2A3A-BE0A-4D29-881A-4A22FA0A6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE96212-A525-4330-ADC8-347D48BA43C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3216" yWindow="7728" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
     <sheet name="doSignIn" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="searchdata" sheetId="4" r:id="rId4"/>
+    <sheet name="doSearch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -26,15 +26,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Jackets for women</t>
-  </si>
-  <si>
-    <t>tops</t>
-  </si>
-  <si>
     <t>QqwertyQ@123!</t>
   </si>
   <si>
@@ -78,6 +69,18 @@
   </si>
   <si>
     <t>abc2@gmail.com</t>
+  </si>
+  <si>
+    <t>searchTerm</t>
+  </si>
+  <si>
+    <t>19103 PA,Philadelphia</t>
+  </si>
+  <si>
+    <t>19130 PA, Philadelphia</t>
+  </si>
+  <si>
+    <t>19104 PA,Philadelphia</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,42 +457,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +518,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,50 +529,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -603,30 +606,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE96212-A525-4330-ADC8-347D48BA43C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AABC7A-1BBF-48FD-ABCD-02D2F1F30965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="7728" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3324" yWindow="3504" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
     <sheet name="doSignIn" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="doSaveUpdates" sheetId="5" r:id="rId3"/>
     <sheet name="doSearch" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Email</t>
   </si>
@@ -81,6 +81,33 @@
   </si>
   <si>
     <t>19104 PA,Philadelphia</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>streetAddress</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>125 Main st</t>
+  </si>
+  <si>
+    <t>123 Main st</t>
+  </si>
+  <si>
+    <t>124 Main st</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Pitsburgh</t>
   </si>
 </sst>
 </file>
@@ -437,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -503,11 +530,11 @@
     <hyperlink ref="B4" r:id="rId4" xr:uid="{A2D57DA5-F57B-4EC0-9B60-86091CC06684}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{092947D6-816E-4A87-86C1-6444F869D5E6}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{334C9F71-A274-4C0A-B827-F4D506A14ABF}"/>
-    <hyperlink ref="A2:A5" r:id="rId7" display="abctestemail237!!@gmail.com" xr:uid="{76FE5A68-8A16-4235-8B37-785AB4804E90}"/>
-    <hyperlink ref="A2" r:id="rId8" xr:uid="{BF33BD21-C36E-4BF5-8837-82B17F81FB17}"/>
-    <hyperlink ref="A3" r:id="rId9" xr:uid="{5DCB839A-62CC-4149-89BF-11A0CBAC0BC0}"/>
-    <hyperlink ref="A4" r:id="rId10" xr:uid="{6DC029EA-4096-45AF-9C95-C50D66D2F7A8}"/>
-    <hyperlink ref="A5" r:id="rId11" xr:uid="{8ED416A2-7413-4071-B44D-BE3896560478}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{5DCB839A-62CC-4149-89BF-11A0CBAC0BC0}"/>
+    <hyperlink ref="A4" r:id="rId8" xr:uid="{6DC029EA-4096-45AF-9C95-C50D66D2F7A8}"/>
+    <hyperlink ref="A5" r:id="rId9" xr:uid="{8ED416A2-7413-4071-B44D-BE3896560478}"/>
+    <hyperlink ref="A2" r:id="rId10" xr:uid="{BF33BD21-C36E-4BF5-8837-82B17F81FB17}"/>
+    <hyperlink ref="A2:A5" r:id="rId11" display="abctestemail237!!@gmail.com" xr:uid="{76FE5A68-8A16-4235-8B37-785AB4804E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -594,12 +621,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C159359-5032-458D-AEEB-0A56F13FFA5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2679875852</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2678526547</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2674718956</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/com.apartments/src/test/resources/test_data.xlsx
+++ b/com.apartments/src/test/resources/test_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AABC7A-1BBF-48FD-ABCD-02D2F1F30965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF68477-835C-44EC-BE05-43497824C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3324" yWindow="3504" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1608" yWindow="1332" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="2" r:id="rId1"/>
@@ -18,30 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>QqwertyQ@123!</t>
-  </si>
-  <si>
-    <t>abctestemail2378!!!!@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail2379!!!!@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail2370!!!!@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail2371!!!!@gmail.com</t>
-  </si>
-  <si>
-    <t>abctestemail2372!!!!@gmail.com</t>
   </si>
   <si>
     <t>abc1@gmail.com</t>
@@ -464,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,59 +465,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D947695A-BA49-459D-92B6-F1C09A1784BE}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{4885726A-FA44-43A1-A909-70C170C18954}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{A2D57DA5-F57B-4EC0-9B60-86091CC06684}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{092947D6-816E-4A87-86C1-6444F869D5E6}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{334C9F71-A274-4C0A-B827-F4D506A14ABF}"/>
-    <hyperlink ref="A3" r:id="rId7" xr:uid="{5DCB839A-62CC-4149-89BF-11A0CBAC0BC0}"/>
-    <hyperlink ref="A4" r:id="rId8" xr:uid="{6DC029EA-4096-45AF-9C95-C50D66D2F7A8}"/>
-    <hyperlink ref="A5" r:id="rId9" xr:uid="{8ED416A2-7413-4071-B44D-BE3896560478}"/>
-    <hyperlink ref="A2" r:id="rId10" xr:uid="{BF33BD21-C36E-4BF5-8837-82B17F81FB17}"/>
-    <hyperlink ref="A2:A5" r:id="rId11" display="abctestemail237!!@gmail.com" xr:uid="{76FE5A68-8A16-4235-8B37-785AB4804E90}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -544,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -556,50 +505,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -635,13 +584,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -649,10 +598,10 @@
         <v>2679875852</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,10 +609,10 @@
         <v>2678526547</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,10 +620,10 @@
         <v>2674718956</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -697,22 +646,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
